--- a/game/Fish/Excel/room.xlsx
+++ b/game/Fish/Excel/room.xlsx
@@ -153,7 +153,7 @@
     <t>enter_min</t>
   </si>
   <si>
-    <t>enter_max最大筹码</t>
+    <t>enter_max</t>
   </si>
   <si>
     <t>auto_chair</t>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>大闹天空</t>
     </r>
     <r>
@@ -1531,7 +1537,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="7"/>

--- a/game/Fish/Excel/room.xlsx
+++ b/game/Fish/Excel/room.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>列解释</t>
   </si>
@@ -220,6 +220,20 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <r>
+      <t>大闹天空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -314,13 +328,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -475,6 +489,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
@@ -483,18 +503,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1536,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="7"/>
@@ -1765,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>50</v>
@@ -1815,10 +1829,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2001</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>2004</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1827,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1865,10 +1879,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2001</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>2004</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1877,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1915,10 +1929,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1926,8 +1940,8 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>55</v>
+      <c r="G8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H8">
         <v>4</v>

--- a/game/Fish/Excel/room.xlsx
+++ b/game/Fish/Excel/room.xlsx
@@ -921,7 +921,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -958,7 +958,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
